--- a/zapateria/2daw_zapateria_ESQUEMA.xlsx
+++ b/zapateria/2daw_zapateria_ESQUEMA.xlsx
@@ -106,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -118,21 +118,6 @@
       <left style="thick">
         <color theme="0"/>
       </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
       <right/>
       <top style="thick">
         <color theme="0"/>
@@ -163,6 +148,140 @@
       </top>
       <bottom style="thick">
         <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,28 +289,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -209,6 +352,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>766053</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>879542</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2444074" y="328309"/>
+          <a:ext cx="1029511" cy="474223"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,66 +681,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/zapateria/2daw_zapateria_ESQUEMA.xlsx
+++ b/zapateria/2daw_zapateria_ESQUEMA.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
-    <t>altas</t>
-  </si>
-  <si>
     <t>Lee &gt;&gt;&gt;</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>update2.php</t>
+  </si>
+  <si>
+    <t>altas ARTICULOS</t>
   </si>
 </sst>
 </file>
@@ -292,49 +292,49 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,73 +672,74 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="A1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>3</v>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
